--- a/result/0-shot/Baichuan-13B/extract/BPlevel/extract.xlsx
+++ b/result/0-shot/Baichuan-13B/extract/BPlevel/extract.xlsx
@@ -461,12 +461,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>（B）2级高血压</t>
+          <t>（D）1级高血压</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>D</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -541,12 +541,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>（D）2级高血压</t>
+          <t>（C）1级高血压</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -561,12 +561,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>（C）3级高血压</t>
+          <t>（A）1级高血压</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -601,12 +601,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>（A）单纯收缩期高血压</t>
+          <t>（B）1级高血压</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -621,12 +621,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>（B）1级高血压</t>
+          <t>（A）单纯收缩期高血压</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -641,12 +641,12 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>（C）单纯收缩期高血压</t>
+          <t>D）2级高血压</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>D</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -681,12 +681,12 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>（C）1级高血压</t>
+          <t>C</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>无法匹配</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -701,12 +701,12 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>（B）血压正常高值</t>
+          <t>（A）1级高血压</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -741,12 +741,12 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>（C）血压正常高值</t>
+          <t>（A）1级高血压</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -761,12 +761,12 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>（C）单纯收缩期高血压</t>
+          <t>（D）1级高血压</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>D</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -801,12 +801,12 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>（D）2级高血压</t>
+          <t>（A）1级高血压</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -841,12 +841,12 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>（C）3级高血压</t>
+          <t>（A）2级高血压</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -861,12 +861,12 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>（C）单纯收缩期高血压</t>
+          <t>（D）1级高血压</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>D</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -881,12 +881,12 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>（D）2级高血压</t>
+          <t>（C）1级高血压</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>C</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -901,12 +901,12 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>（A）1级高血压</t>
+          <t>（B）2级高血压</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -961,12 +961,12 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>（C）1级高血压</t>
+          <t>（D）2级高血压</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>D</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -981,12 +981,12 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>（C）2级高血压</t>
+          <t>（D）1级高血压</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>D</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1001,12 +1001,12 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>（B）1级高血压</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>无法匹配</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1021,12 +1021,12 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>（B）3级高血压</t>
+          <t>（C）1级高血压</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1081,12 +1081,12 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>（C）单纯收缩期高血压</t>
+          <t>（D）1级高血压</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>D</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1101,12 +1101,12 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>（B）3级高血压</t>
+          <t>（C）2级高血压</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1121,12 +1121,12 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>（C）单纯收缩期高血压</t>
+          <t>（B）2级高血压</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1161,12 +1161,12 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>（B）单纯收缩期高血压</t>
+          <t>（C）1级高血压</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1181,12 +1181,12 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>（B）1级高血压</t>
+          <t>（C）2级高血压</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1301,12 +1301,12 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>（C）1级高血压</t>
+          <t>（D）2级高血压</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>D</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1321,12 +1321,12 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>（B）单纯收缩期高血压</t>
+          <t>（C）2级高血压</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1341,12 +1341,12 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>（C）1级高血压</t>
+          <t>（D）2级高血压</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>D</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1361,12 +1361,12 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>（C）1级高血压</t>
+          <t>（D）2级高血压</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>D</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1401,12 +1401,12 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>（C）单纯收缩期高血压</t>
+          <t>（A）3级高血压</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1421,12 +1421,12 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>（C）2级高血压</t>
+          <t>（B）1级高血压</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -1441,12 +1441,12 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>（C）单纯收缩期高血压</t>
+          <t>（D）1级高血压</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>D</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -1481,12 +1481,12 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>（C）1级高血压</t>
+          <t>（A）3级高血压</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -1501,7 +1501,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>（C）2级高血压</t>
+          <t>C）2级高血压</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -1521,12 +1521,12 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>（C）3级高血压</t>
+          <t>（D）血压正常高值</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>D</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -1561,12 +1561,12 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>（C）单纯收缩期高血压</t>
+          <t>（D）2级高血压</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>D</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -1581,12 +1581,12 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>（C）2级高血压</t>
+          <t>（D）1级高血压</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>D</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -1621,12 +1621,12 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>（C）血压正常高值</t>
+          <t>（A）2级高血压</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -1641,12 +1641,12 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>（A）单纯收缩期高血压</t>
+          <t>（B）1级高血压</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
